--- a/Шаблоны/Scenar1.xlsx
+++ b/Шаблоны/Scenar1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94FF8C-E634-498D-BA36-160DC3E24B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -97,15 +96,18 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -318,6 +320,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -327,7 +330,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% — акцент6" xfId="2" builtinId="50"/>
@@ -479,12 +481,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E81B165-09FC-422D-A5C4-9B09EC282761}" name="Таблица22" displayName="Таблица22" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Акцент6" dataCellStyle="20% — акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица22" displayName="Таблица22" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Акцент6" dataCellStyle="20% — акцент6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D6DB38F7-EC96-40B6-8239-1E82468D0B35}" name="Номер" dataDxfId="3" dataCellStyle="20% — акцент6"/>
-    <tableColumn id="2" xr3:uid="{7A4B8A25-57F4-4C3F-BD06-D43081978500}" name="Время" dataDxfId="2" dataCellStyle="20% — акцент6"/>
-    <tableColumn id="3" xr3:uid="{3CC753F5-8FCF-4871-BE7E-20F912CFDEC6}" name="Объект" dataDxfId="1" dataCellStyle="20% — акцент6"/>
-    <tableColumn id="4" xr3:uid="{48223C06-0271-4EE6-8C13-13DB32F22654}" name="Значение" dataDxfId="0" dataCellStyle="20% — акцент6"/>
+    <tableColumn id="1" name="Номер" dataDxfId="3" dataCellStyle="20% — акцент6"/>
+    <tableColumn id="2" name="Время" dataDxfId="2" dataCellStyle="20% — акцент6"/>
+    <tableColumn id="3" name="Объект" dataDxfId="1" dataCellStyle="20% — акцент6"/>
+    <tableColumn id="4" name="Значение" dataDxfId="0" dataCellStyle="20% — акцент6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,64 +754,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="5" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>45257.986782417101</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -826,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -841,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -856,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -871,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -888,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="1.05">
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -913,26 +915,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="34.19921875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="72.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -941,9 +943,12 @@
       <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="15">
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="12">
         <v>0.875</v>
       </c>
     </row>
@@ -954,22 +959,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493057D5-2A53-4A48-922F-F148DE2C358B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="61.06640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.53125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="61" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -983,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Шаблоны/Scenar1.xlsx
+++ b/Шаблоны/Scenar1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="238">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -430,33 +430,9 @@
     <t>put on</t>
   </si>
   <si>
-    <t>ОРУ_35_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>ОРУ_35_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>ОРУ_35_Т1</t>
   </si>
   <si>
-    <t>РУ6_9_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_9_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>ОРУ_110_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>ОРУ_110_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>ОПУ_ШРОТ_СВ110</t>
   </si>
   <si>
@@ -761,6 +737,12 @@
   </si>
   <si>
     <t>Процент выполнения</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1038,7 +1021,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1339,43 +1321,43 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>122</v>
@@ -1396,7 +1378,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B7" s="36">
         <f>COUNTIF(Норматив!$G:$G,B6)</f>
@@ -1421,7 +1403,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B8" s="36">
         <f>SUMIF(Норматив!H:H,1,Норматив!H:H)</f>
@@ -1446,7 +1428,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B9" s="37">
         <f>ABS(B8/B7)</f>
@@ -1749,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -1758,66 +1740,66 @@
         <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="38"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="3"/>
       <c r="D8" s="39"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="3"/>
       <c r="D9" s="39"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1827,7 +1809,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1837,7 +1819,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1847,798 +1829,798 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="40"/>
       <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="40"/>
       <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="B15" s="40"/>
       <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="40"/>
       <c r="F16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="B17" s="40"/>
       <c r="F17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
+      <c r="B18" s="40"/>
       <c r="F18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+      <c r="B19" s="40"/>
       <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="B20" s="40"/>
       <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="B21" s="40"/>
       <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="B22" s="40"/>
       <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
+      <c r="B23" s="40"/>
       <c r="F23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+      <c r="B24" s="40"/>
       <c r="F24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="B25" s="40"/>
       <c r="F25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
+      <c r="B26" s="40"/>
       <c r="F26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
+      <c r="B27" s="40"/>
       <c r="F27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
+      <c r="B28" s="40"/>
       <c r="F28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
+      <c r="B29" s="40"/>
       <c r="F29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
+      <c r="B30" s="40"/>
       <c r="F30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
+      <c r="B31" s="40"/>
       <c r="F31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
+      <c r="B32" s="40"/>
       <c r="F32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
+      <c r="B33" s="40"/>
       <c r="F33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+      <c r="B34" s="40"/>
       <c r="F34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+      <c r="B35" s="40"/>
       <c r="F35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
+      <c r="B36" s="40"/>
       <c r="F36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
+      <c r="B37" s="40"/>
       <c r="F37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
+      <c r="B38" s="40"/>
       <c r="F38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
+      <c r="B39" s="40"/>
       <c r="F39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="B40" s="40"/>
       <c r="F40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
+      <c r="B41" s="40"/>
       <c r="F41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
+      <c r="B42" s="40"/>
       <c r="F42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
+      <c r="B43" s="40"/>
       <c r="F43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
+      <c r="B44" s="40"/>
       <c r="F44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
+      <c r="B45" s="40"/>
       <c r="F45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
+      <c r="B46" s="40"/>
       <c r="F46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
+      <c r="B47" s="40"/>
       <c r="F47" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="43"/>
+      <c r="B48" s="40"/>
       <c r="F48" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="43"/>
+      <c r="B49" s="40"/>
       <c r="F49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
+      <c r="B50" s="40"/>
       <c r="F50" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
+      <c r="B51" s="40"/>
       <c r="F51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="43"/>
+      <c r="B52" s="40"/>
       <c r="F52" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="43"/>
+      <c r="B53" s="40"/>
       <c r="F53" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="43"/>
+      <c r="B54" s="40"/>
       <c r="F54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="43"/>
+      <c r="B55" s="40"/>
       <c r="F55" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="43"/>
+      <c r="B56" s="40"/>
       <c r="F56" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
+      <c r="B57" s="40"/>
       <c r="F57" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="43"/>
+      <c r="B58" s="40"/>
       <c r="F58" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="43"/>
+      <c r="B59" s="40"/>
       <c r="F59" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="43"/>
+      <c r="B60" s="40"/>
       <c r="F60" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="43"/>
+      <c r="B61" s="40"/>
       <c r="F61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="43"/>
+      <c r="B62" s="40"/>
       <c r="F62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="43"/>
+      <c r="B63" s="40"/>
       <c r="F63" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
+      <c r="B64" s="40"/>
       <c r="F64" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
+      <c r="B65" s="40"/>
       <c r="F65" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="43"/>
+      <c r="B66" s="40"/>
       <c r="F66" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
+      <c r="B67" s="40"/>
       <c r="F67" s="4" t="str">
         <f t="shared" ref="F67:F130" si="1">C67&amp;D67&amp;E67</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
+      <c r="B68" s="40"/>
       <c r="F68" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="43"/>
+      <c r="B69" s="40"/>
       <c r="F69" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="43"/>
+      <c r="B70" s="40"/>
       <c r="F70" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
+      <c r="B71" s="40"/>
       <c r="F71" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="43"/>
+      <c r="B72" s="40"/>
       <c r="F72" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="43"/>
+      <c r="B73" s="40"/>
       <c r="F73" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="43"/>
+      <c r="B74" s="40"/>
       <c r="F74" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="43"/>
+      <c r="B75" s="40"/>
       <c r="F75" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="43"/>
+      <c r="B76" s="40"/>
       <c r="F76" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="43"/>
+      <c r="B77" s="40"/>
       <c r="F77" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="43"/>
+      <c r="B78" s="40"/>
       <c r="F78" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="43"/>
+      <c r="B79" s="40"/>
       <c r="F79" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+      <c r="B80" s="40"/>
       <c r="F80" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="43"/>
+      <c r="B81" s="40"/>
       <c r="F81" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="43"/>
+      <c r="B82" s="40"/>
       <c r="F82" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="43"/>
+      <c r="B83" s="40"/>
       <c r="F83" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="43"/>
+      <c r="B84" s="40"/>
       <c r="F84" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="43"/>
+      <c r="B85" s="40"/>
       <c r="F85" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="43"/>
+      <c r="B86" s="40"/>
       <c r="F86" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="43"/>
+      <c r="B87" s="40"/>
       <c r="F87" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
+      <c r="B88" s="40"/>
       <c r="F88" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="43"/>
+      <c r="B89" s="40"/>
       <c r="F89" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="43"/>
+      <c r="B90" s="40"/>
       <c r="F90" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="43"/>
+      <c r="B91" s="40"/>
       <c r="F91" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="43"/>
+      <c r="B92" s="40"/>
       <c r="F92" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="43"/>
+      <c r="B93" s="40"/>
       <c r="F93" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="43"/>
+      <c r="B94" s="40"/>
       <c r="F94" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="43"/>
+      <c r="B95" s="40"/>
       <c r="F95" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="43"/>
+      <c r="B96" s="40"/>
       <c r="F96" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="43"/>
+      <c r="B97" s="40"/>
       <c r="F97" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="43"/>
+      <c r="B98" s="40"/>
       <c r="F98" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="43"/>
+      <c r="B99" s="40"/>
       <c r="F99" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="43"/>
+      <c r="B100" s="40"/>
       <c r="F100" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="43"/>
+      <c r="B101" s="40"/>
       <c r="F101" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="43"/>
+      <c r="B102" s="40"/>
       <c r="F102" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
+      <c r="B103" s="40"/>
       <c r="F103" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="43"/>
+      <c r="B104" s="40"/>
       <c r="F104" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="43"/>
+      <c r="B105" s="40"/>
       <c r="F105" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="43"/>
+      <c r="B106" s="40"/>
       <c r="F106" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="43"/>
+      <c r="B107" s="40"/>
       <c r="F107" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="43"/>
+      <c r="B108" s="40"/>
       <c r="F108" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="43"/>
+      <c r="B109" s="40"/>
       <c r="F109" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="43"/>
+      <c r="B110" s="40"/>
       <c r="F110" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="43"/>
+      <c r="B111" s="40"/>
       <c r="F111" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="43"/>
+      <c r="B112" s="40"/>
       <c r="F112" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="43"/>
+      <c r="B113" s="40"/>
       <c r="F113" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="43"/>
+      <c r="B114" s="40"/>
       <c r="F114" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="43"/>
+      <c r="B115" s="40"/>
       <c r="F115" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="43"/>
+      <c r="B116" s="40"/>
       <c r="F116" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="43"/>
+      <c r="B117" s="40"/>
       <c r="F117" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="43"/>
+      <c r="B118" s="40"/>
       <c r="F118" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="43"/>
+      <c r="B119" s="40"/>
       <c r="F119" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="43"/>
+      <c r="B120" s="40"/>
       <c r="F120" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="43"/>
+      <c r="B121" s="40"/>
       <c r="F121" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="43"/>
+      <c r="B122" s="40"/>
       <c r="F122" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="43"/>
+      <c r="B123" s="40"/>
       <c r="F123" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="43"/>
+      <c r="B124" s="40"/>
       <c r="F124" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="43"/>
+      <c r="B125" s="40"/>
       <c r="F125" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="43"/>
+      <c r="B126" s="40"/>
       <c r="F126" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3698,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,13 +3737,13 @@
         <v>125</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3818,10 +3800,10 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -3868,14 +3850,14 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>123</v>
@@ -3916,10 +3898,10 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -3969,7 +3951,7 @@
         <v>129</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -4019,7 +4001,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -4065,8 +4047,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>133</v>
+      <c r="C8" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>131</v>
@@ -4098,7 +4080,7 @@
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>ОРУ_35_Перчатки_Проверитьсheck integrity1</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity1</v>
       </c>
       <c r="M8" s="15" t="e">
         <f>VLOOKUP(L8,Выполнение!F:F,1,FALSE)</f>
@@ -4115,8 +4097,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>134</v>
+      <c r="C9" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>132</v>
@@ -4148,7 +4130,7 @@
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>ОРУ_35_Перчатки_Надетьput on1</v>
+        <v>ОРУ_Перчатки_Надетьput on1</v>
       </c>
       <c r="M9" s="15" t="e">
         <f>VLOOKUP(L9,Выполнение!F:F,1,FALSE)</f>
@@ -4166,7 +4148,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>128</v>
@@ -4213,7 +4195,7 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>128</v>
@@ -4261,10 +4243,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -4311,10 +4293,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E13" s="10">
         <v>2</v>
@@ -4361,10 +4343,10 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E14" s="10">
         <v>2</v>
@@ -4410,8 +4392,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
-        <v>133</v>
+      <c r="C15" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>131</v>
@@ -4443,7 +4425,7 @@
       </c>
       <c r="L15" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>ОРУ_35_Перчатки_Проверитьсheck integrity2</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity2</v>
       </c>
       <c r="M15" s="15" t="e">
         <f>VLOOKUP(L15,Выполнение!F:F,1,FALSE)</f>
@@ -4460,8 +4442,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>134</v>
+      <c r="C16" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>132</v>
@@ -4493,7 +4475,7 @@
       </c>
       <c r="L16" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>ОРУ_35_Перчатки_Надетьput on2</v>
+        <v>ОРУ_Перчатки_Надетьput on2</v>
       </c>
       <c r="M16" s="15" t="e">
         <f>VLOOKUP(L16,Выполнение!F:F,1,FALSE)</f>
@@ -4511,7 +4493,7 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>128</v>
@@ -4559,7 +4541,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>128</v>
@@ -4607,10 +4589,10 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -4657,10 +4639,10 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E20" s="10">
         <v>2</v>
@@ -4707,10 +4689,10 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E21" s="10">
         <v>2</v>
@@ -4757,10 +4739,10 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -4807,10 +4789,10 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
@@ -4857,7 +4839,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>127</v>
@@ -4905,10 +4887,10 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E25" s="10">
         <v>2</v>
@@ -4955,10 +4937,10 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E26" s="10">
         <v>2</v>
@@ -5005,10 +4987,10 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E27" s="10">
         <v>2</v>
@@ -5055,10 +5037,10 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
@@ -5105,10 +5087,10 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
@@ -5155,10 +5137,10 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -5205,10 +5187,10 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E31" s="10">
         <v>2</v>
@@ -5255,10 +5237,10 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="27" t="s">
@@ -5303,10 +5285,10 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -5353,10 +5335,10 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
@@ -5403,7 +5385,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>127</v>
@@ -5451,10 +5433,10 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
@@ -5501,7 +5483,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>127</v>
@@ -5549,10 +5531,10 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E38" s="10">
         <v>2</v>
@@ -5599,10 +5581,10 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
@@ -5649,7 +5631,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>127</v>
@@ -5697,10 +5679,10 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E41" s="10">
         <v>2</v>
@@ -5747,10 +5729,10 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="13" t="s">
@@ -5795,10 +5777,10 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E43" s="10">
         <v>3</v>
@@ -5845,7 +5827,7 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>127</v>
@@ -5893,10 +5875,10 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E45" s="10">
         <v>1</v>
@@ -5943,10 +5925,10 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
@@ -5993,10 +5975,10 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E47" s="10">
         <v>2</v>
@@ -6043,10 +6025,10 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E48" s="10">
         <v>1</v>
@@ -6093,10 +6075,10 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E49" s="10">
         <v>1</v>
@@ -6143,10 +6125,10 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="13" t="s">
@@ -6190,8 +6172,8 @@
         <v>50</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="10" t="s">
-        <v>136</v>
+      <c r="C51" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>131</v>
@@ -6223,7 +6205,7 @@
       </c>
       <c r="L51" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>РУ6_9_Перчатки_Проверитьсheck integrity3</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity3</v>
       </c>
       <c r="M51" s="15" t="e">
         <f>VLOOKUP(L51,Выполнение!F:F,1,FALSE)</f>
@@ -6240,8 +6222,8 @@
         <v>51</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="10" t="s">
-        <v>137</v>
+      <c r="C52" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>132</v>
@@ -6273,7 +6255,7 @@
       </c>
       <c r="L52" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>РУ6_9_Перчатки_Надетьput on3</v>
+        <v>ОРУ_Перчатки_Надетьput on3</v>
       </c>
       <c r="M52" s="15" t="e">
         <f>VLOOKUP(L52,Выполнение!F:F,1,FALSE)</f>
@@ -6291,10 +6273,10 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="13" t="s">
@@ -6339,10 +6321,10 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="13" t="s">
@@ -6387,10 +6369,10 @@
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="27" t="s">
@@ -6435,10 +6417,10 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E56" s="10">
         <v>3</v>
@@ -6485,10 +6467,10 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E57" s="10">
         <v>3</v>
@@ -6535,10 +6517,10 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E58" s="10">
         <v>2</v>
@@ -6585,10 +6567,10 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E59" s="10">
         <v>2</v>
@@ -6635,7 +6617,7 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>127</v>
@@ -6683,10 +6665,10 @@
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E61" s="10">
         <v>1</v>
@@ -6733,7 +6715,7 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>127</v>
@@ -6781,10 +6763,10 @@
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="13" t="s">
@@ -6829,7 +6811,7 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>127</v>
@@ -6877,7 +6859,7 @@
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>127</v>
@@ -6925,10 +6907,10 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E66" s="10">
         <v>1</v>
@@ -6975,10 +6957,10 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E67" s="10">
         <v>2</v>
@@ -7025,10 +7007,10 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E68" s="10">
         <v>2</v>
@@ -7075,10 +7057,10 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E69" s="10">
         <v>1</v>
@@ -7125,10 +7107,10 @@
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="13" t="s">
@@ -7173,7 +7155,7 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>127</v>
@@ -7221,7 +7203,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>127</v>
@@ -7269,7 +7251,7 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>127</v>
@@ -7317,10 +7299,10 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E74" s="29">
         <v>3</v>
@@ -7367,10 +7349,10 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E75" s="10">
         <v>1</v>
@@ -7417,7 +7399,7 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>127</v>
@@ -7465,10 +7447,10 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="13" t="s">
@@ -7513,10 +7495,10 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E78" s="10">
         <v>1</v>
@@ -7563,7 +7545,7 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>127</v>
@@ -7611,10 +7593,10 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="13" t="s">
@@ -7659,10 +7641,10 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E81" s="10">
         <v>4</v>
@@ -7709,10 +7691,10 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E82" s="10">
         <v>2</v>
@@ -7759,10 +7741,10 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E83" s="10">
         <v>1</v>
@@ -7809,10 +7791,10 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="13" t="s">
@@ -7857,10 +7839,10 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -7907,7 +7889,7 @@
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>127</v>
@@ -7955,10 +7937,10 @@
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E87" s="10">
         <v>1</v>
@@ -8005,10 +7987,10 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E88" s="10">
         <v>1</v>
@@ -8055,10 +8037,10 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E89" s="10">
         <v>1</v>
@@ -8105,7 +8087,7 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>127</v>
@@ -8153,10 +8135,10 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="13" t="s">
@@ -8201,10 +8183,10 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E92" s="10">
         <v>2</v>
@@ -8251,10 +8233,10 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E93" s="10">
         <v>1</v>
@@ -8301,10 +8283,10 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="13" t="s">
@@ -8349,10 +8331,10 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E95" s="10">
         <v>1</v>
@@ -8399,7 +8381,7 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>127</v>
@@ -8447,10 +8429,10 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="13" t="s">
@@ -8495,10 +8477,10 @@
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E98" s="10">
         <v>2</v>
@@ -8545,10 +8527,10 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E99" s="10">
         <v>1</v>
@@ -8595,10 +8577,10 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="24" t="s">
@@ -8642,8 +8624,8 @@
         <v>100</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="10" t="s">
-        <v>133</v>
+      <c r="C101" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>131</v>
@@ -8675,7 +8657,7 @@
       </c>
       <c r="L101" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>ОРУ_35_Перчатки_Проверитьсheck integrity4</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity4</v>
       </c>
       <c r="M101" s="15" t="e">
         <f>VLOOKUP(L101,Выполнение!F:F,1,FALSE)</f>
@@ -8692,8 +8674,8 @@
         <v>101</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="C102" s="10" t="s">
-        <v>134</v>
+      <c r="C102" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>132</v>
@@ -8725,7 +8707,7 @@
       </c>
       <c r="L102" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>ОРУ_35_Перчатки_Надетьput on4</v>
+        <v>ОРУ_Перчатки_Надетьput on4</v>
       </c>
       <c r="M102" s="15" t="e">
         <f>VLOOKUP(L102,Выполнение!F:F,1,FALSE)</f>
@@ -8743,7 +8725,7 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>128</v>
@@ -8791,7 +8773,7 @@
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>128</v>
@@ -8839,10 +8821,10 @@
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E105" s="10">
         <v>3</v>
@@ -8889,10 +8871,10 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="13" t="s">
@@ -8937,10 +8919,10 @@
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E107" s="10">
         <v>2</v>
@@ -8987,10 +8969,10 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E108" s="10">
         <v>4</v>
@@ -9037,10 +9019,10 @@
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="13" t="s">
@@ -9084,8 +9066,8 @@
         <v>109</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="C110" s="10" t="s">
-        <v>140</v>
+      <c r="C110" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>131</v>
@@ -9117,7 +9099,7 @@
       </c>
       <c r="L110" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>ОРУ_110_Перчатки_Проверитьсheck integrity5</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity5</v>
       </c>
       <c r="M110" s="15" t="e">
         <f>VLOOKUP(L110,Выполнение!F:F,1,FALSE)</f>
@@ -9134,8 +9116,8 @@
         <v>110</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="C111" s="10" t="s">
-        <v>141</v>
+      <c r="C111" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>132</v>
@@ -9167,7 +9149,7 @@
       </c>
       <c r="L111" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>ОРУ_110_Перчатки_Надетьput on5</v>
+        <v>ОРУ_Перчатки_Надетьput on5</v>
       </c>
       <c r="M111" s="15" t="e">
         <f>VLOOKUP(L111,Выполнение!F:F,1,FALSE)</f>
@@ -9185,7 +9167,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>128</v>
@@ -9233,7 +9215,7 @@
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>128</v>
@@ -9281,10 +9263,10 @@
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E114" s="10">
         <v>3</v>
@@ -9331,10 +9313,10 @@
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="13" t="s">
@@ -9379,10 +9361,10 @@
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E116" s="10">
         <v>2</v>
@@ -9429,10 +9411,10 @@
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E117" s="10">
         <v>4</v>
@@ -9479,10 +9461,10 @@
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="13" t="s">
@@ -9526,8 +9508,8 @@
         <v>118</v>
       </c>
       <c r="B119" s="10"/>
-      <c r="C119" s="10" t="s">
-        <v>138</v>
+      <c r="C119" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D119" s="22" t="s">
         <v>131</v>
@@ -9559,7 +9541,7 @@
       </c>
       <c r="L119" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>РУ6_Перчатки_Проверитьсheck integrity6</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity6</v>
       </c>
       <c r="M119" s="15" t="e">
         <f>VLOOKUP(L119,Выполнение!F:F,1,FALSE)</f>
@@ -9576,8 +9558,8 @@
         <v>119</v>
       </c>
       <c r="B120" s="10"/>
-      <c r="C120" s="10" t="s">
-        <v>139</v>
+      <c r="C120" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>132</v>
@@ -9609,7 +9591,7 @@
       </c>
       <c r="L120" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>РУ6_Перчатки_Надетьput on6</v>
+        <v>ОРУ_Перчатки_Надетьput on6</v>
       </c>
       <c r="M120" s="15" t="e">
         <f>VLOOKUP(L120,Выполнение!F:F,1,FALSE)</f>
@@ -9627,7 +9609,7 @@
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D121" s="21" t="s">
         <v>128</v>
@@ -9675,7 +9657,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="10" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>128</v>
@@ -9722,8 +9704,8 @@
         <v>122</v>
       </c>
       <c r="B123" s="10"/>
-      <c r="C123" s="10" t="s">
-        <v>136</v>
+      <c r="C123" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D123" s="22" t="s">
         <v>131</v>
@@ -9755,7 +9737,7 @@
       </c>
       <c r="L123" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>РУ6_9_Перчатки_Проверитьсheck integrity7</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity7</v>
       </c>
       <c r="M123" s="15" t="e">
         <f>VLOOKUP(L123,Выполнение!F:F,1,FALSE)</f>
@@ -9772,8 +9754,8 @@
         <v>123</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="10" t="s">
-        <v>137</v>
+      <c r="C124" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>132</v>
@@ -9805,7 +9787,7 @@
       </c>
       <c r="L124" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>РУ6_9_Перчатки_Надетьput on7</v>
+        <v>ОРУ_Перчатки_Надетьput on7</v>
       </c>
       <c r="M124" s="15" t="e">
         <f>VLOOKUP(L124,Выполнение!F:F,1,FALSE)</f>
@@ -9823,10 +9805,10 @@
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="13" t="s">
@@ -9871,10 +9853,10 @@
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E126" s="10">
         <v>1</v>
@@ -9921,10 +9903,10 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E127" s="10">
         <v>2</v>
@@ -9971,10 +9953,10 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="13" t="s">
@@ -10019,10 +10001,10 @@
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E129" s="10">
         <v>3</v>
@@ -10068,8 +10050,8 @@
         <v>129</v>
       </c>
       <c r="B130" s="10"/>
-      <c r="C130" s="10" t="s">
-        <v>140</v>
+      <c r="C130" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>131</v>
@@ -10101,7 +10083,7 @@
       </c>
       <c r="L130" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>ОРУ_110_Перчатки_Проверитьсheck integrity8</v>
+        <v>ОРУ_Перчатки_Проверитьсheck integrity8</v>
       </c>
       <c r="M130" s="15" t="e">
         <f>VLOOKUP(L130,Выполнение!F:F,1,FALSE)</f>
@@ -10118,8 +10100,8 @@
         <v>130</v>
       </c>
       <c r="B131" s="10"/>
-      <c r="C131" s="10" t="s">
-        <v>141</v>
+      <c r="C131" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>132</v>
@@ -10151,7 +10133,7 @@
       </c>
       <c r="L131" s="15" t="str">
         <f t="shared" ref="L131:L194" si="17">C131&amp;D131&amp;E131</f>
-        <v>ОРУ_110_Перчатки_Надетьput on8</v>
+        <v>ОРУ_Перчатки_Надетьput on8</v>
       </c>
       <c r="M131" s="15" t="e">
         <f>VLOOKUP(L131,Выполнение!F:F,1,FALSE)</f>
@@ -10169,10 +10151,10 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E132" s="10">
         <v>1</v>
@@ -10219,10 +10201,10 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E133" s="10">
         <v>4</v>

--- a/Шаблоны/Scenar1.xlsx
+++ b/Шаблоны/Scenar1.xlsx
@@ -643,9 +643,6 @@
     <t>ОРУ_110_ЗОНТ1_Рычаг</t>
   </si>
   <si>
-    <t>ОРУ_35_ЗОНТ2_2секция</t>
-  </si>
-  <si>
     <t>ОРУ_110_ЗОНТ1_1секция</t>
   </si>
   <si>
@@ -734,6 +731,9 @@
   </si>
   <si>
     <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗОНТ2_2секция</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>122</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1685,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>131</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>132</v>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>128</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>128</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>131</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>132</v>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>128</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>128</v>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>177</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>178</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>177</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>177</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>178</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>131</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>132</v>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>192</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>178</v>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>127</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>178</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>178</v>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>131</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>132</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>128</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>191</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>178</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>131</v>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>132</v>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D112" s="20" t="s">
         <v>128</v>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>128</v>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D116" s="20" t="s">
         <v>178</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D119" s="21" t="s">
         <v>131</v>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D120" s="21" t="s">
         <v>132</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="20" t="s">
         <v>128</v>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>128</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D123" s="21" t="s">
         <v>131</v>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>132</v>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>178</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" s="20" t="s">
         <v>177</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D129" s="20" t="s">
         <v>177</v>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>131</v>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>132</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D132" s="20" t="s">
         <v>178</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D133" s="20" t="s">
         <v>177</v>

--- a/Шаблоны/Scenar1.xlsx
+++ b/Шаблоны/Scenar1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="234">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>ОРУ_110_ЗОНТ2_2секция</t>
+  </si>
+  <si>
+    <t>Сверка нормативы</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -999,6 +1002,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1649,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F299"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,62 +1670,76 @@
     <col min="6" max="6" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="37"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
       <c r="C6" s="3"/>
       <c r="D6" s="35"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
       <c r="C7" s="3"/>
       <c r="D7" s="36"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="3"/>
       <c r="D8" s="36"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="37"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1730,7 +1749,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1740,7 +1759,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1750,35 +1769,35 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="F12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="F16" s="4" t="str">
         <f t="shared" si="0"/>
